--- a/Python/lambor_Inputbox_GSRK.xlsx
+++ b/Python/lambor_Inputbox_GSRK.xlsx
@@ -29,39 +29,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[1]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[2]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[3]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[4]/div[2]/div[2]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[5]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[1]/div[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[2]/div[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[3]/div[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[4]/div[2]/div[3]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[5]/div[2]/a</t>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[1]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[2]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[2]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[3]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[3]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[4]/div[2]/div[2]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[4]/div[2]/div[3]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[5]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[5]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -411,36 +411,36 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>

--- a/Python/lambor_Inputbox_GSRK.xlsx
+++ b/Python/lambor_Inputbox_GSRK.xlsx
@@ -29,39 +29,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[1]/div[1]/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[1]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[2]/div[1]/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[2]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[3]/div[1]/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[3]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[4]/div[2]/div[2]/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[4]/div[2]/div[3]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[5]/div[1]/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[5]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[1]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[2]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[3]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[4]/div[2]/div[3]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[5]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[2]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[3]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[4]/div[2]/div[2]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[5]/div[1]/input</t>
   </si>
 </sst>
 </file>
@@ -389,7 +384,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -408,42 +403,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
